--- a/TestList/7.0FujianConstructionStudy.xlsx
+++ b/TestList/7.0FujianConstructionStudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,13 +69,13 @@
     <t>//a[contains(@i,'close')]</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Account number</t>
   </si>
   <si>
     <t>输入</t>
   </si>
   <si>
-    <t>/html/body/div[8]/div/div[2]/div[1]/div/div[2]/div/form/ul/li[1]/input</t>
+    <t>//input[contains(@name,'useName')]</t>
   </si>
   <si>
     <t>350681198809015221</t>
@@ -84,7 +84,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>/html/body/div[8]/div/div[2]/div[1]/div/div[2]/div/form/ul/li[2]/input</t>
+    <t>//input[contains(@name,'passWord')]</t>
   </si>
   <si>
     <t>015221</t>
@@ -93,7 +93,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>/html/body/div[8]/div/div[2]/div[1]/div/div[2]/div/form/ul/li[3]/input</t>
+    <t>//input[contains(@name,'picValidateCode')]</t>
   </si>
   <si>
     <t>adce</t>
@@ -102,7 +102,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>/html/body/div[8]/div/div[2]/div[1]/div/div[2]/div/form/ul/li[5]/button</t>
+    <t>//button[contains(@ng-bind,'Ing')]</t>
   </si>
   <si>
     <t>waitlogin</t>
@@ -164,8 +164,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -186,6 +186,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -195,66 +254,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,14 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -293,30 +293,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +331,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,15 +522,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,6 +536,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,58 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,131 +640,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,7 +1130,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1277,7 +1277,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1466,14 +1466,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C28">
-      <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17:D25">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27">
       <formula1>"URL、Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C28">
+      <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D65524">
       <formula1>"xpath,name,id,css,text"</formula1>

--- a/TestList/7.0FujianConstructionStudy.xlsx
+++ b/TestList/7.0FujianConstructionStudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>序号
 （id）</t>
@@ -90,12 +90,15 @@
     <t>015221</t>
   </si>
   <si>
+    <t>move to codeInputBox</t>
+  </si>
+  <si>
+    <t>//input[contains(@name,'picValidateCode')]</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>//input[contains(@name,'picValidateCode')]</t>
-  </si>
-  <si>
     <t>adce</t>
   </si>
   <si>
@@ -154,6 +157,12 @@
   </si>
   <si>
     <t>http://fjjsrckjjy.59iedu.com/play/#/learn/4028fba0679bdcde0167fcd98e492bc9/4028fbb767cafd2d0167e3233c19243d/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName=</t>
+  </si>
+  <si>
+    <t>ckick play</t>
+  </si>
+  <si>
+    <t>//*[@id="lesson_player_box_container_new_hwCloud_dom_baby"]/button</t>
   </si>
   <si>
     <t>waitplay</t>
@@ -164,8 +173,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -187,6 +196,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,29 +272,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -239,7 +302,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,37 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -293,30 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,181 +340,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -551,11 +575,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,41 +623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,131 +649,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1244,24 +1253,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1269,19 +1278,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1289,16 +1298,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
+      <c r="E8" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1309,16 +1318,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1329,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1337,8 +1346,8 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1349,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1358,7 +1367,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1369,16 +1378,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1389,16 +1398,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1409,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1418,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1429,16 +1438,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1449,40 +1458,78 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D18 D19:D27">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
       <formula1>"URL、Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C30">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D65524">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://fjjsrckjjy.59iedu.com/index" tooltip="http://fjjsrckjjy.59iedu.com/index"/>
-    <hyperlink ref="E12" r:id="rId2" display="http://fjjsrckjjy.59iedu.com/center/myRealClass/4028fba0679bdcde0167fcd98e492bc9"/>
-    <hyperlink ref="E15" r:id="rId3" display="http://fjjsrckjjy.59iedu.com/play/#/learn/4028fba0679bdcde0167fcd98e492bc9/4028fbb767cafd2d0167e3233c19243d/courseware?exts=%7B%22learnType%22:%22TRAINING_CLASS%22%7D&amp;unitName="/>
+    <hyperlink ref="E2" r:id="rId1" display="http://fjjsrckjjy.59iedu.com/index"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestList/7.0FujianConstructionStudy.xlsx
+++ b/TestList/7.0FujianConstructionStudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
   <si>
     <t>序号
 （id）</t>
@@ -102,19 +102,25 @@
     <t>adce</t>
   </si>
   <si>
+    <t>wait code</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
     <t>//button[contains(@ng-bind,'Ing')]</t>
   </si>
   <si>
+    <t>重跑</t>
+  </si>
+  <si>
     <t>waitlogin</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>enterstudentclass</t>
@@ -174,8 +180,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -196,98 +202,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,8 +253,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +292,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -323,13 +336,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,31 +346,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,151 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,21 +537,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,11 +581,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,17 +632,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,131 +655,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1301,13 +1307,13 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1318,19 +1324,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1338,16 +1344,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1366,7 +1372,7 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1401,10 +1407,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1421,10 +1427,10 @@
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
@@ -1461,10 +1467,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
@@ -1481,12 +1487,12 @@
         <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1501,35 +1507,55 @@
         <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D18 D19:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D19 D20:D28">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
-      <formula1>"URL、Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C31">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D65527">
       <formula1>"xpath,name,id,css,text"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30">
+      <formula1>"URL、Xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://fjjsrckjjy.59iedu.com/index"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://fjjsrckjjy.59iedu.com/index" tooltip="http://fjjsrckjjy.59iedu.com/index"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
